--- a/medicine/Psychotrope/Mahou-San_Miguel/Mahou-San_Miguel.xlsx
+++ b/medicine/Psychotrope/Mahou-San_Miguel/Mahou-San_Miguel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le groupe Mahou-San Miguel est l'une des trois plus grandes brasseries espagnoles avec Heineken Espagne et Damm[1].
+Le groupe Mahou-San Miguel est l'une des trois plus grandes brasseries espagnoles avec Heineken Espagne et Damm.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2000, le groupe Mahou, qui possède déjà 30 % des parts des brasseries San Miguel, rachète les 70 % restants à Danone pour la somme de 330 500 000 euros. Mahou prend le nom de Mahou-San Miguel et devient ainsi la plus importante brasserie de capitaux exclusivement espagnols. En 2004, le groupe acquiert les Cervezas Anaga, et en 2007 les Cervezas Alhambra. En 2010, il acquiert le fabricant d'eau minérale Solán de Cabras afin de diversifier ses activités[2]. Le groupe emploie environ 3 200 personnes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2000, le groupe Mahou, qui possède déjà 30 % des parts des brasseries San Miguel, rachète les 70 % restants à Danone pour la somme de 330 500 000 euros. Mahou prend le nom de Mahou-San Miguel et devient ainsi la plus importante brasserie de capitaux exclusivement espagnols. En 2004, le groupe acquiert les Cervezas Anaga, et en 2007 les Cervezas Alhambra. En 2010, il acquiert le fabricant d'eau minérale Solán de Cabras afin de diversifier ses activités. Le groupe emploie environ 3 200 personnes.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Techniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour l'extraction des malts, lors de la fabrication des bières, les usines du groupe utilisent la technique des fluides supercritiques[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour l'extraction des malts, lors de la fabrication des bières, les usines du groupe utilisent la technique des fluides supercritiques.
 </t>
         </is>
       </c>
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bières
-Mahou Cinco Estrellas
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mahou Cinco Estrellas
 Mahou Cinco Estrellas sin gluten (sans gluten)
 Mahou Cinco Estrellas session IPA
 Mahou Clásica
@@ -601,9 +622,43 @@
 Alhambra Negra
 Mezquita
 La Salve Original
-Nómada Hanami
-Bières sans alcool
-Laiker (depuis 2011, Mahou Sin)
+Nómada Hanami</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mahou-San_Miguel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mahou-San_Miguel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Marques du groupe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bières sans alcool</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laiker (depuis 2011, Mahou Sin)
 San Miguel 0,0 %
 San Miguel 0,0 % Manzana
 San Miguel 0,0 % Limón
